--- a/Code/Results/Cases/Case_9_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.33209863335877</v>
+        <v>20.01384280827919</v>
       </c>
       <c r="C2">
-        <v>11.62901196659966</v>
+        <v>11.71538807161777</v>
       </c>
       <c r="D2">
-        <v>5.9406563846553</v>
+        <v>5.963985575469428</v>
       </c>
       <c r="E2">
-        <v>8.504483429281821</v>
+        <v>8.40824546287692</v>
       </c>
       <c r="F2">
-        <v>21.92866856962507</v>
+        <v>21.41903706820043</v>
       </c>
       <c r="G2">
-        <v>25.00947924972046</v>
+        <v>23.60795842121507</v>
       </c>
       <c r="H2">
-        <v>2.075908673649303</v>
+        <v>2.01057028414093</v>
       </c>
       <c r="I2">
-        <v>2.854548760547822</v>
+        <v>2.76146267867074</v>
       </c>
       <c r="J2">
-        <v>9.466554231012422</v>
+        <v>9.715372161958355</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.201105298598899</v>
+        <v>12.36362483521827</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.416087816655839</v>
       </c>
       <c r="N2">
-        <v>7.480530382026589</v>
+        <v>6.139649780862777</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.77554873082124</v>
+        <v>7.654017938102845</v>
       </c>
       <c r="Q2">
-        <v>15.78930882020484</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.76010407258948</v>
+      </c>
+      <c r="S2">
+        <v>15.39898450578149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.0452013873109</v>
+        <v>18.76326727841948</v>
       </c>
       <c r="C3">
-        <v>11.21267385988923</v>
+        <v>11.20262206985697</v>
       </c>
       <c r="D3">
-        <v>5.808504092179969</v>
+        <v>5.832956375743192</v>
       </c>
       <c r="E3">
-        <v>8.41150759041825</v>
+        <v>8.327366992349118</v>
       </c>
       <c r="F3">
-        <v>21.5560725352974</v>
+        <v>21.09142649438827</v>
       </c>
       <c r="G3">
-        <v>24.39875611187215</v>
+        <v>23.09020815988047</v>
       </c>
       <c r="H3">
-        <v>2.271686524968614</v>
+        <v>2.193482798653716</v>
       </c>
       <c r="I3">
-        <v>3.004932999164248</v>
+        <v>2.895510589720151</v>
       </c>
       <c r="J3">
-        <v>9.443441228341939</v>
+        <v>9.673497672871397</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.171947860254537</v>
+        <v>12.50193656138105</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.416263832550396</v>
       </c>
       <c r="N3">
-        <v>7.231115721000263</v>
+        <v>6.113534731030419</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.82901061256668</v>
+        <v>7.397807316761448</v>
       </c>
       <c r="Q3">
-        <v>15.62993275619572</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.78771411011729</v>
+      </c>
+      <c r="S3">
+        <v>15.26993556901684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.20693468308971</v>
+        <v>17.94765538574727</v>
       </c>
       <c r="C4">
-        <v>10.94995579231282</v>
+        <v>10.87829033071492</v>
       </c>
       <c r="D4">
-        <v>5.726784123842065</v>
+        <v>5.752116923166707</v>
       </c>
       <c r="E4">
-        <v>8.353262429924854</v>
+        <v>8.276649112161213</v>
       </c>
       <c r="F4">
-        <v>21.33159200198205</v>
+        <v>20.89354606537614</v>
       </c>
       <c r="G4">
-        <v>24.02667207810808</v>
+        <v>22.77723273139278</v>
       </c>
       <c r="H4">
-        <v>2.396466760515046</v>
+        <v>2.310117054428583</v>
       </c>
       <c r="I4">
-        <v>3.101540533912985</v>
+        <v>2.98196346185802</v>
       </c>
       <c r="J4">
-        <v>9.432127593842116</v>
+        <v>9.648661611283329</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.153212338163581</v>
+        <v>12.58841719603273</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.435535654020811</v>
       </c>
       <c r="N4">
-        <v>7.074290657918744</v>
+        <v>6.096697014555855</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.86458207597889</v>
+        <v>7.237048552317381</v>
       </c>
       <c r="Q4">
-        <v>15.53704475034991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.80779858884983</v>
+      </c>
+      <c r="S4">
+        <v>15.19461470500921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.84812849980394</v>
+        <v>17.59812950907249</v>
       </c>
       <c r="C5">
-        <v>10.84749404629687</v>
+        <v>10.75069834128676</v>
       </c>
       <c r="D5">
-        <v>5.693653226299793</v>
+        <v>5.719400335331516</v>
       </c>
       <c r="E5">
-        <v>8.328301313126667</v>
+        <v>8.254796788930799</v>
       </c>
       <c r="F5">
-        <v>21.23502728802847</v>
+        <v>20.80755801974817</v>
       </c>
       <c r="G5">
-        <v>23.86497535230237</v>
+        <v>22.63995921546983</v>
       </c>
       <c r="H5">
-        <v>2.448780828079833</v>
+        <v>2.359038886558752</v>
       </c>
       <c r="I5">
-        <v>3.14479580125818</v>
+        <v>3.021532919205658</v>
       </c>
       <c r="J5">
-        <v>9.426435673623629</v>
+        <v>9.636959286167606</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.144955558142178</v>
+        <v>12.61993675472742</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.445782471694738</v>
       </c>
       <c r="N5">
-        <v>7.011055348649246</v>
+        <v>6.089240782741605</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.88063965879392</v>
+        <v>7.172275057226796</v>
       </c>
       <c r="Q5">
-        <v>15.49591922555566</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.81772814975309</v>
+      </c>
+      <c r="S5">
+        <v>15.16039775805573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.78151224400979</v>
+        <v>17.53303640642858</v>
       </c>
       <c r="C6">
-        <v>10.83809638636988</v>
+        <v>10.73775122668134</v>
       </c>
       <c r="D6">
-        <v>5.688489311846604</v>
+        <v>5.714315531405858</v>
       </c>
       <c r="E6">
-        <v>8.322990158058319</v>
+        <v>8.250025491658031</v>
       </c>
       <c r="F6">
-        <v>21.21142547681308</v>
+        <v>20.78571591432838</v>
       </c>
       <c r="G6">
-        <v>23.82475791950479</v>
+        <v>22.60369474142619</v>
       </c>
       <c r="H6">
-        <v>2.457906211417258</v>
+        <v>2.367585924783672</v>
       </c>
       <c r="I6">
-        <v>3.155653749030916</v>
+        <v>3.032416537971383</v>
       </c>
       <c r="J6">
-        <v>9.423340297513228</v>
+        <v>9.632826246449605</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.143070842351036</v>
+        <v>12.62017065234773</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.444850685927939</v>
       </c>
       <c r="N6">
-        <v>7.002376126598363</v>
+        <v>6.087513745327822</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.88443631850686</v>
+        <v>7.163339526492998</v>
       </c>
       <c r="Q6">
-        <v>15.48363062020347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.82062004915993</v>
+      </c>
+      <c r="S6">
+        <v>15.14926919057804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.18530648449416</v>
+        <v>17.91989160432131</v>
       </c>
       <c r="C7">
-        <v>10.96945662251353</v>
+        <v>10.89351626022331</v>
       </c>
       <c r="D7">
-        <v>5.72726950090539</v>
+        <v>5.755231218565059</v>
       </c>
       <c r="E7">
-        <v>8.349813863180456</v>
+        <v>8.273891485760981</v>
       </c>
       <c r="F7">
-        <v>21.30954692824693</v>
+        <v>20.85990972802028</v>
       </c>
       <c r="G7">
-        <v>23.98811099638688</v>
+        <v>22.82453006451966</v>
       </c>
       <c r="H7">
-        <v>2.398154346850075</v>
+        <v>2.312282682081273</v>
       </c>
       <c r="I7">
-        <v>3.111677631064644</v>
+        <v>2.994239209165541</v>
       </c>
       <c r="J7">
-        <v>9.426072949327239</v>
+        <v>9.604264584893746</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.151750457407021</v>
+        <v>12.57062290102974</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.424357523870924</v>
       </c>
       <c r="N7">
-        <v>7.078491392821524</v>
+        <v>6.095066290007345</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.86784202769678</v>
+        <v>7.240671328789758</v>
       </c>
       <c r="Q7">
-        <v>15.52142617766656</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.81256646005872</v>
+      </c>
+      <c r="S7">
+        <v>15.16975330036172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.87777300206151</v>
+        <v>19.552851031266</v>
       </c>
       <c r="C8">
-        <v>11.51371089118434</v>
+        <v>11.55146527108727</v>
       </c>
       <c r="D8">
-        <v>5.896440498828643</v>
+        <v>5.928632890136535</v>
       </c>
       <c r="E8">
-        <v>8.468663324192887</v>
+        <v>8.378684906869783</v>
       </c>
       <c r="F8">
-        <v>21.77253289357292</v>
+        <v>21.24037444642104</v>
       </c>
       <c r="G8">
-        <v>24.75172308380259</v>
+        <v>23.66007944635049</v>
       </c>
       <c r="H8">
-        <v>2.143699344934926</v>
+        <v>2.075645132713489</v>
       </c>
       <c r="I8">
-        <v>2.917793097033721</v>
+        <v>2.822825642214955</v>
       </c>
       <c r="J8">
-        <v>9.450141602686859</v>
+        <v>9.568178420673327</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.18950573149293</v>
+        <v>12.38013152955027</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.38826724021864</v>
       </c>
       <c r="N8">
-        <v>7.401758587601472</v>
+        <v>6.12843604732151</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.79773836624487</v>
+        <v>7.571118945763305</v>
       </c>
       <c r="Q8">
-        <v>15.71370087314265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.77835463485118</v>
+      </c>
+      <c r="S8">
+        <v>15.30332759245069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.84065891050893</v>
+        <v>22.42541943921289</v>
       </c>
       <c r="C9">
-        <v>12.48591237412776</v>
+        <v>12.74407918321348</v>
       </c>
       <c r="D9">
-        <v>6.220469347888362</v>
+        <v>6.252720057484735</v>
       </c>
       <c r="E9">
-        <v>8.697690057709231</v>
+        <v>8.578714366156074</v>
       </c>
       <c r="F9">
-        <v>22.74705268466468</v>
+        <v>22.08925807355338</v>
       </c>
       <c r="G9">
-        <v>26.3270902162217</v>
+        <v>25.07610791054791</v>
       </c>
       <c r="H9">
-        <v>1.67872701994862</v>
+        <v>1.641781977722979</v>
       </c>
       <c r="I9">
-        <v>2.555426054145426</v>
+        <v>2.499050607719765</v>
       </c>
       <c r="J9">
-        <v>9.531299388585145</v>
+        <v>9.651947509956292</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.259336139535382</v>
+        <v>12.0575777564747</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.498875181759537</v>
       </c>
       <c r="N9">
-        <v>7.995139423570537</v>
+        <v>6.190658070240438</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.67675202877678</v>
+        <v>8.18210673246033</v>
       </c>
       <c r="Q9">
-        <v>16.15638831286324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.72555779241301</v>
+      </c>
+      <c r="S9">
+        <v>15.65731385415093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.72639323960792</v>
+        <v>24.22476057516325</v>
       </c>
       <c r="C10">
-        <v>13.20108153863344</v>
+        <v>13.57501659277617</v>
       </c>
       <c r="D10">
-        <v>6.417549006465373</v>
+        <v>6.463993648259682</v>
       </c>
       <c r="E10">
-        <v>8.793678405353454</v>
+        <v>8.66025525347853</v>
       </c>
       <c r="F10">
-        <v>23.34982073328829</v>
+        <v>22.54209576214657</v>
       </c>
       <c r="G10">
-        <v>27.31220246025624</v>
+        <v>26.4158585484525</v>
       </c>
       <c r="H10">
-        <v>1.753513680669727</v>
+        <v>1.766234511885134</v>
       </c>
       <c r="I10">
-        <v>2.644762969849637</v>
+        <v>2.680666695980278</v>
       </c>
       <c r="J10">
-        <v>9.575618959559659</v>
+        <v>9.483458515567843</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.291229476703671</v>
+        <v>11.76888260670335</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.602246337026177</v>
       </c>
       <c r="N10">
-        <v>8.331677358015277</v>
+        <v>6.218324915765226</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.62051739557693</v>
+        <v>8.52755059498871</v>
       </c>
       <c r="Q10">
-        <v>16.43020369382673</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.73113498590774</v>
+      </c>
+      <c r="S10">
+        <v>15.8162496965388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.08151358655584</v>
+        <v>24.53473977131948</v>
       </c>
       <c r="C11">
-        <v>13.82277755871312</v>
+        <v>14.1558961582869</v>
       </c>
       <c r="D11">
-        <v>6.199321065450405</v>
+        <v>6.27036900061236</v>
       </c>
       <c r="E11">
-        <v>8.331996285492799</v>
+        <v>8.217658849598813</v>
       </c>
       <c r="F11">
-        <v>22.5763082531586</v>
+        <v>21.66447597928868</v>
       </c>
       <c r="G11">
-        <v>26.36034979818338</v>
+        <v>26.48396088803577</v>
       </c>
       <c r="H11">
-        <v>2.72833101861895</v>
+        <v>2.730010754580912</v>
       </c>
       <c r="I11">
-        <v>2.717312976255339</v>
+        <v>2.744535990722949</v>
       </c>
       <c r="J11">
-        <v>9.350984100133717</v>
+        <v>8.882143736519108</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.215695148957987</v>
+        <v>11.32204336400368</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.255294110507629</v>
       </c>
       <c r="N11">
-        <v>7.814226932074095</v>
+        <v>6.158920773601275</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.75668613299785</v>
+        <v>7.993865580232806</v>
       </c>
       <c r="Q11">
-        <v>15.94778925865328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.9151431385646</v>
+      </c>
+      <c r="S11">
+        <v>15.24795452809258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.01288523639922</v>
+        <v>24.46305870728369</v>
       </c>
       <c r="C12">
-        <v>14.17983831677935</v>
+        <v>14.46636926370583</v>
       </c>
       <c r="D12">
-        <v>5.971980783278154</v>
+        <v>6.050968881159153</v>
       </c>
       <c r="E12">
-        <v>8.015663525569437</v>
+        <v>7.916022896756939</v>
       </c>
       <c r="F12">
-        <v>21.81004396525934</v>
+        <v>20.88334626000381</v>
       </c>
       <c r="G12">
-        <v>25.37736813380094</v>
+        <v>26.01164657834748</v>
       </c>
       <c r="H12">
-        <v>4.051035645937724</v>
+        <v>4.051060518294561</v>
       </c>
       <c r="I12">
-        <v>2.725821948417513</v>
+        <v>2.750372564407507</v>
       </c>
       <c r="J12">
-        <v>9.15658384251123</v>
+        <v>8.563797866868708</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.203828605516969</v>
+        <v>11.04807174008362</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.964668249837453</v>
       </c>
       <c r="N12">
-        <v>7.30617214902361</v>
+        <v>6.161326456120183</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.88975738047128</v>
+        <v>7.471389772023421</v>
       </c>
       <c r="Q12">
-        <v>15.49434784097278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>13.06821508128369</v>
+      </c>
+      <c r="S12">
+        <v>14.78064904906198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.59263599514901</v>
+        <v>24.08415842383587</v>
       </c>
       <c r="C13">
-        <v>14.38880481409629</v>
+        <v>14.63667681099708</v>
       </c>
       <c r="D13">
-        <v>5.723007261454104</v>
+        <v>5.792580790445809</v>
       </c>
       <c r="E13">
-        <v>7.796169886465883</v>
+        <v>7.710069778105064</v>
       </c>
       <c r="F13">
-        <v>20.96380536948025</v>
+        <v>20.1161519988978</v>
       </c>
       <c r="G13">
-        <v>24.24074074396561</v>
+        <v>24.82574198924387</v>
       </c>
       <c r="H13">
-        <v>5.467482140918096</v>
+        <v>5.466392394418686</v>
       </c>
       <c r="I13">
-        <v>2.690941094902907</v>
+        <v>2.719746846676568</v>
       </c>
       <c r="J13">
-        <v>8.964006762984546</v>
+        <v>8.470879706398774</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.236299340878091</v>
+        <v>10.86805384122455</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.69683234386909</v>
       </c>
       <c r="N13">
-        <v>6.776122167046152</v>
+        <v>6.20691626090597</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>13.02913357127069</v>
+        <v>6.928453953256921</v>
       </c>
       <c r="Q13">
-        <v>15.00940261887181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>13.20071761200944</v>
+      </c>
+      <c r="S13">
+        <v>14.35780517218237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.12906381537439</v>
+        <v>23.66971673995578</v>
       </c>
       <c r="C14">
-        <v>14.47608627380918</v>
+        <v>14.7002812634423</v>
       </c>
       <c r="D14">
-        <v>5.539238763163025</v>
+        <v>5.595358506805312</v>
       </c>
       <c r="E14">
-        <v>7.703985807602804</v>
+        <v>7.628235151309417</v>
       </c>
       <c r="F14">
-        <v>20.32808612807178</v>
+        <v>19.57576364506831</v>
       </c>
       <c r="G14">
-        <v>23.35926113520923</v>
+        <v>23.66631360726673</v>
       </c>
       <c r="H14">
-        <v>6.493097864365425</v>
+        <v>6.490812783845261</v>
       </c>
       <c r="I14">
-        <v>2.648290295153266</v>
+        <v>2.683530158440242</v>
       </c>
       <c r="J14">
-        <v>8.829041241662923</v>
+        <v>8.49221540306397</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.285095911345992</v>
+        <v>10.77759460496952</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.52122253950953</v>
       </c>
       <c r="N14">
-        <v>6.398038625936696</v>
+        <v>6.263743882573612</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>13.13061399368188</v>
+        <v>6.541961465148252</v>
       </c>
       <c r="Q14">
-        <v>14.65169316868221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>13.28464743693127</v>
+      </c>
+      <c r="S14">
+        <v>14.07551283820633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.93421155546788</v>
+        <v>23.49555580227325</v>
       </c>
       <c r="C15">
-        <v>14.47278044067669</v>
+        <v>14.6928435950014</v>
       </c>
       <c r="D15">
-        <v>5.490222797005311</v>
+        <v>5.540331580789002</v>
       </c>
       <c r="E15">
-        <v>7.68951200786049</v>
+        <v>7.616952437564903</v>
       </c>
       <c r="F15">
-        <v>20.15133422943505</v>
+        <v>19.43912979777382</v>
       </c>
       <c r="G15">
-        <v>23.10135528010604</v>
+        <v>23.23795989337895</v>
       </c>
       <c r="H15">
-        <v>6.730696791147787</v>
+        <v>6.727820441072973</v>
       </c>
       <c r="I15">
-        <v>2.630096265382808</v>
+        <v>2.668919715330626</v>
       </c>
       <c r="J15">
-        <v>8.795302760794861</v>
+        <v>8.533944972896979</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.298721515870219</v>
+        <v>10.76817018988342</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.481025209182338</v>
       </c>
       <c r="N15">
-        <v>6.30178750186351</v>
+        <v>6.279120664196741</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>13.15653361077885</v>
+        <v>6.443998689742836</v>
       </c>
       <c r="Q15">
-        <v>14.55429642598488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>13.30102561708197</v>
+      </c>
+      <c r="S15">
+        <v>14.00997562492985</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.20749883487474</v>
+        <v>22.84218797101087</v>
       </c>
       <c r="C16">
-        <v>14.15445556110789</v>
+        <v>14.38103800323962</v>
       </c>
       <c r="D16">
-        <v>5.451897996196047</v>
+        <v>5.479511272995109</v>
       </c>
       <c r="E16">
-        <v>7.688401858195604</v>
+        <v>7.620713784404727</v>
       </c>
       <c r="F16">
-        <v>20.03215301441611</v>
+        <v>19.46005637780075</v>
       </c>
       <c r="G16">
-        <v>22.8435100648563</v>
+        <v>22.14613739020885</v>
       </c>
       <c r="H16">
-        <v>6.522552319293413</v>
+        <v>6.516084514642298</v>
       </c>
       <c r="I16">
-        <v>2.538009651166165</v>
+        <v>2.59124176432634</v>
       </c>
       <c r="J16">
-        <v>8.810461690283519</v>
+        <v>8.872003245821695</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.273570006374103</v>
+        <v>10.91192354220043</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.533636205853149</v>
       </c>
       <c r="N16">
-        <v>6.251087249036352</v>
+        <v>6.252942653544806</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>13.14177213147573</v>
+        <v>6.3962975520471</v>
       </c>
       <c r="Q16">
-        <v>14.51742058952533</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>13.24120029605603</v>
+      </c>
+      <c r="S16">
+        <v>14.08450001380712</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.8969743856331</v>
+        <v>22.55378780346284</v>
       </c>
       <c r="C17">
-        <v>13.85879395327183</v>
+        <v>14.09478611842544</v>
       </c>
       <c r="D17">
-        <v>5.521220644025389</v>
+        <v>5.541182389674894</v>
       </c>
       <c r="E17">
-        <v>7.726396697470126</v>
+        <v>7.65500298147029</v>
       </c>
       <c r="F17">
-        <v>20.28408929426427</v>
+        <v>19.75405922631697</v>
       </c>
       <c r="G17">
-        <v>23.1268673246599</v>
+        <v>22.0582764743807</v>
       </c>
       <c r="H17">
-        <v>5.785823331034985</v>
+        <v>5.776365590778486</v>
       </c>
       <c r="I17">
-        <v>2.526860898405123</v>
+        <v>2.550693186350091</v>
       </c>
       <c r="J17">
-        <v>8.89412709265353</v>
+        <v>9.090327106345935</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.224165027951831</v>
+        <v>11.07532436885529</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.657887538339661</v>
       </c>
       <c r="N17">
-        <v>6.4149432397412</v>
+        <v>6.198794669855615</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>13.07825352389178</v>
+        <v>6.566312704734592</v>
       </c>
       <c r="Q17">
-        <v>14.68154983744183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>13.15709938242993</v>
+      </c>
+      <c r="S17">
+        <v>14.28218822639656</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.93137902437739</v>
+        <v>22.5786499999019</v>
       </c>
       <c r="C18">
-        <v>13.53753267335123</v>
+        <v>13.79562575456315</v>
       </c>
       <c r="D18">
-        <v>5.692320532770502</v>
+        <v>5.71124498011465</v>
       </c>
       <c r="E18">
-        <v>7.859167456088806</v>
+        <v>7.775667327160263</v>
       </c>
       <c r="F18">
-        <v>20.89517573113546</v>
+        <v>20.35178992613417</v>
       </c>
       <c r="G18">
-        <v>23.92778005664427</v>
+        <v>22.66567485146783</v>
       </c>
       <c r="H18">
-        <v>4.532222800208838</v>
+        <v>4.51934539991731</v>
       </c>
       <c r="I18">
-        <v>2.53242019868081</v>
+        <v>2.533405545415502</v>
       </c>
       <c r="J18">
-        <v>9.049350621299508</v>
+        <v>9.290399966272085</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.175276239945487</v>
+        <v>11.29404382554507</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.86962110168162</v>
       </c>
       <c r="N18">
-        <v>6.790209520022763</v>
+        <v>6.140846976605105</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.9660513973009</v>
+        <v>6.951753297718565</v>
       </c>
       <c r="Q18">
-        <v>15.04520279501923</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>13.03694176307095</v>
+      </c>
+      <c r="S18">
+        <v>14.63625457791971</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.21313150688144</v>
+        <v>22.83099674740313</v>
       </c>
       <c r="C19">
-        <v>13.26459080256361</v>
+        <v>13.55821392890356</v>
       </c>
       <c r="D19">
-        <v>5.936428625988318</v>
+        <v>5.957845885909059</v>
       </c>
       <c r="E19">
-        <v>8.133382730980209</v>
+        <v>8.032024706739431</v>
       </c>
       <c r="F19">
-        <v>21.71240480487968</v>
+        <v>21.12201063107299</v>
       </c>
       <c r="G19">
-        <v>25.01519108454794</v>
+        <v>23.64340465075323</v>
       </c>
       <c r="H19">
-        <v>3.043593250331771</v>
+        <v>3.025870539860239</v>
       </c>
       <c r="I19">
-        <v>2.519428298444965</v>
+        <v>2.551596143191166</v>
       </c>
       <c r="J19">
-        <v>9.24045096081354</v>
+        <v>9.477770284139181</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.170721884557069</v>
+        <v>11.53339995349956</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.125354913807572</v>
       </c>
       <c r="N19">
-        <v>7.326705924384186</v>
+        <v>6.123439499834403</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.83811412874742</v>
+        <v>7.501199380719835</v>
       </c>
       <c r="Q19">
-        <v>15.51550071284085</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.90896186123763</v>
+      </c>
+      <c r="S19">
+        <v>15.0711345814196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.20344260673181</v>
+        <v>23.74154519237184</v>
       </c>
       <c r="C20">
-        <v>13.07557818191207</v>
+        <v>13.44101586068463</v>
       </c>
       <c r="D20">
-        <v>6.367232944997054</v>
+        <v>6.40134905517402</v>
       </c>
       <c r="E20">
-        <v>8.757167028278598</v>
+        <v>8.625556838236943</v>
       </c>
       <c r="F20">
-        <v>23.12629479296107</v>
+        <v>22.39786083620536</v>
       </c>
       <c r="G20">
-        <v>26.94579323827818</v>
+        <v>25.67750263906831</v>
       </c>
       <c r="H20">
-        <v>1.669546326750166</v>
+        <v>1.689938481350588</v>
       </c>
       <c r="I20">
-        <v>2.595454588884793</v>
+        <v>2.643317635188741</v>
       </c>
       <c r="J20">
-        <v>9.543773322981057</v>
+        <v>9.637212556030727</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.278760290686428</v>
+        <v>11.82418299487485</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.547365906916298</v>
       </c>
       <c r="N20">
-        <v>8.25464194533998</v>
+        <v>6.20801323073364</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.64662965210209</v>
+        <v>8.449812747585913</v>
       </c>
       <c r="Q20">
-        <v>16.30962050697957</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.73632777003279</v>
+      </c>
+      <c r="S20">
+        <v>15.75906517632678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.66636691386044</v>
+        <v>25.04515717733279</v>
       </c>
       <c r="C21">
-        <v>13.54777798747707</v>
+        <v>13.91558529001009</v>
       </c>
       <c r="D21">
-        <v>6.571125256659606</v>
+        <v>6.662733255863761</v>
       </c>
       <c r="E21">
-        <v>8.931487824928304</v>
+        <v>8.798237844820314</v>
       </c>
       <c r="F21">
-        <v>23.78864662684119</v>
+        <v>22.72888951982074</v>
       </c>
       <c r="G21">
-        <v>27.96600072812316</v>
+        <v>28.4114032511681</v>
       </c>
       <c r="H21">
-        <v>1.909122849289872</v>
+        <v>1.903879993683513</v>
       </c>
       <c r="I21">
-        <v>2.779596612512461</v>
+        <v>2.79935989675556</v>
       </c>
       <c r="J21">
-        <v>9.629208827776413</v>
+        <v>8.919520541465259</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.326232508779856</v>
+        <v>11.60232706448888</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.638849565473832</v>
       </c>
       <c r="N21">
-        <v>8.624128000645987</v>
+        <v>6.245518514836354</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.58161170510856</v>
+        <v>8.820253127277805</v>
       </c>
       <c r="Q21">
-        <v>16.64238941108881</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.75089109942554</v>
+      </c>
+      <c r="S21">
+        <v>15.82463924603843</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.56933623933659</v>
+        <v>25.84395111629297</v>
       </c>
       <c r="C22">
-        <v>13.84202289713623</v>
+        <v>14.201629040631</v>
       </c>
       <c r="D22">
-        <v>6.683439341680193</v>
+        <v>6.816124845895978</v>
       </c>
       <c r="E22">
-        <v>9.014632128645035</v>
+        <v>8.883794947986258</v>
       </c>
       <c r="F22">
-        <v>24.1858595771624</v>
+        <v>22.89862630360556</v>
       </c>
       <c r="G22">
-        <v>28.58950885397195</v>
+        <v>30.25951576932459</v>
       </c>
       <c r="H22">
-        <v>2.059865037006499</v>
+        <v>2.038338588339623</v>
       </c>
       <c r="I22">
-        <v>2.8908673649827</v>
+        <v>2.891423931568449</v>
       </c>
       <c r="J22">
-        <v>9.681331898952184</v>
+        <v>8.456324909664104</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.350429951362151</v>
+        <v>11.45116340844759</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.698499682423979</v>
       </c>
       <c r="N22">
-        <v>8.814811149701578</v>
+        <v>6.264355207839163</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.54511514766147</v>
+        <v>9.010148936057531</v>
       </c>
       <c r="Q22">
-        <v>16.84695225233456</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.77041514094056</v>
+      </c>
+      <c r="S22">
+        <v>15.84323410636558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.10575997584543</v>
+        <v>25.44770238691166</v>
       </c>
       <c r="C23">
-        <v>13.66466237254258</v>
+        <v>14.03944218006579</v>
       </c>
       <c r="D23">
-        <v>6.622653130833843</v>
+        <v>6.726896016778215</v>
       </c>
       <c r="E23">
-        <v>8.973619692945116</v>
+        <v>8.83936058065907</v>
       </c>
       <c r="F23">
-        <v>23.99545848035809</v>
+        <v>22.85773467025099</v>
       </c>
       <c r="G23">
-        <v>28.29361535147807</v>
+        <v>29.10723502279976</v>
       </c>
       <c r="H23">
-        <v>1.980602383164374</v>
+        <v>1.968599541293317</v>
       </c>
       <c r="I23">
-        <v>2.826950250717357</v>
+        <v>2.837074259359117</v>
       </c>
       <c r="J23">
-        <v>9.659972267125305</v>
+        <v>8.780939436598247</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.338932561223822</v>
+        <v>11.55080752827877</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.691343347439698</v>
       </c>
       <c r="N23">
-        <v>8.708537244815426</v>
+        <v>6.255970660389814</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>12.55968142867307</v>
+        <v>8.905470200074802</v>
       </c>
       <c r="Q23">
-        <v>16.75372207876203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.74975128625652</v>
+      </c>
+      <c r="S23">
+        <v>15.87258558107695</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.24316754178503</v>
+        <v>23.77932875205835</v>
       </c>
       <c r="C24">
-        <v>13.00895132816841</v>
+        <v>13.3749945728258</v>
       </c>
       <c r="D24">
-        <v>6.390910119973752</v>
+        <v>6.424910143353077</v>
       </c>
       <c r="E24">
-        <v>8.811002795350733</v>
+        <v>8.677429497618451</v>
       </c>
       <c r="F24">
-        <v>23.24363010783688</v>
+        <v>22.51195911061333</v>
       </c>
       <c r="G24">
-        <v>27.11208998099101</v>
+        <v>25.82227146477824</v>
       </c>
       <c r="H24">
-        <v>1.672240707244466</v>
+        <v>1.692635286688212</v>
       </c>
       <c r="I24">
-        <v>2.587891457617923</v>
+        <v>2.633367283917177</v>
       </c>
       <c r="J24">
-        <v>9.574627741520811</v>
+        <v>9.67200651996847</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.29203426881001</v>
+        <v>11.87209284316606</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.597104568572297</v>
       </c>
       <c r="N24">
-        <v>8.303779259418484</v>
+        <v>6.21947473103018</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.62821434906634</v>
+        <v>8.500247201618969</v>
       </c>
       <c r="Q24">
-        <v>16.3838273380853</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.71614525452201</v>
+      </c>
+      <c r="S24">
+        <v>15.83072726141822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.05473674009476</v>
+        <v>21.670893672012</v>
       </c>
       <c r="C25">
-        <v>12.26452945868543</v>
+        <v>12.47534565020046</v>
       </c>
       <c r="D25">
-        <v>6.135267270862686</v>
+        <v>6.163868821111715</v>
       </c>
       <c r="E25">
-        <v>8.63149273552621</v>
+        <v>8.519495814781534</v>
       </c>
       <c r="F25">
-        <v>22.44525137676369</v>
+        <v>21.83831883911613</v>
       </c>
       <c r="G25">
-        <v>25.83943519466051</v>
+        <v>24.51394176221986</v>
       </c>
       <c r="H25">
-        <v>1.802340535263486</v>
+        <v>1.756431519429948</v>
       </c>
       <c r="I25">
-        <v>2.668013442365657</v>
+        <v>2.603905787670576</v>
       </c>
       <c r="J25">
-        <v>9.496192799033611</v>
+        <v>9.670937622820205</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.238894369896268</v>
+        <v>12.12965309312282</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.438592928936062</v>
       </c>
       <c r="N25">
-        <v>7.846696822136392</v>
+        <v>6.172715229164984</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.71341240291476</v>
+        <v>8.029512311706462</v>
       </c>
       <c r="Q25">
-        <v>16.0062958966749</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.74200727890076</v>
+      </c>
+      <c r="S25">
+        <v>15.54535805757508</v>
       </c>
     </row>
   </sheetData>
